--- a/data/trans_bre/IP19C03-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C03-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,79</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-18,72%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,56%</t>
+          <t>12,21%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 10,71</t>
+          <t>-5,42; 8,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 7,79</t>
+          <t>-5,93; 9,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 1,66</t>
+          <t>-4,45; 10,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 4,93</t>
+          <t>-7,33; 11,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 60,9</t>
+          <t>-35,9; 101,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,35; 39,6</t>
+          <t>-31,91; 76,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,78; 11,06</t>
+          <t>-23,68; 89,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,84; 39,76</t>
+          <t>-32,23; 79,09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>-3,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>20,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>-18,72%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>-0,56%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 8,74</t>
+          <t>-2,46; 10,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 9,12</t>
+          <t>-5,54; 7,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 10,97</t>
+          <t>-10,34; 1,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 11,54</t>
+          <t>-4,87; 4,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-35,9; 101,21</t>
+          <t>-9,46; 60,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,91; 76,85</t>
+          <t>-21,35; 39,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-23,68; 89,69</t>
+          <t>-42,78; 11,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-32,23; 79,09</t>
+          <t>-28,84; 39,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C03-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C03-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,24</t>
+          <t>41,8</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>68,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>68,77%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 15,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 9,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 23,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 32,33</t>
+          <t>13,93; 77,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-48,6; 450,02</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>-4,57</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>27,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>-33,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>-4,17%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 8,74</t>
+          <t>-4,5; 10,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 9,12</t>
+          <t>-11,77; 3,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 10,97</t>
+          <t>-7,63; 10,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 11,54</t>
+          <t>-12,56; 9,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,9; 101,21</t>
+          <t>-38,86; 212,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,91; 76,85</t>
+          <t>-67,37; 47,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,68; 89,69</t>
+          <t>-44,52; 111,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,23; 79,09</t>
+          <t>-49,87; 66,96</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,79</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-18,72%</t>
+          <t>-8,07%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,56%</t>
+          <t>18,55%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 10,71</t>
+          <t>-5,7; 10,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 7,79</t>
+          <t>-6,14; 10,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 1,66</t>
+          <t>-7,82; 5,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 4,93</t>
+          <t>-4,63; 12,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 60,9</t>
+          <t>-26,59; 88,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,35; 39,6</t>
+          <t>-27,46; 61,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-42,78; 11,06</t>
+          <t>-40,64; 44,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-28,84; 39,76</t>
+          <t>-24,69; 92,88</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-6,58%</t>
+          <t>-13,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>-4,17%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 7,87</t>
+          <t>-2,99; 11,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 6,02</t>
+          <t>-4,63; 11,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 3,43</t>
+          <t>-11,64; 4,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 5,5</t>
+          <t>-6,92; 5,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 51,36</t>
+          <t>-11,52; 64,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,24; 36,2</t>
+          <t>-17,24; 60,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,95; 22,16</t>
+          <t>-43,08; 24,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,45; 40,42</t>
+          <t>-37,26; 47,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-1,2</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18,21%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6,4%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-6,58%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 8,36</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,48; 6,05</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-5,44; 3,82</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,59; 5,66</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-6,5; 56,63</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-16,13; 35,37</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-27,63; 24,0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-19,72; 41,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP19C03-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C03-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,93; 77,49</t>
+          <t>14,3; 74,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 10,03</t>
+          <t>-5,41; 9,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 3,94</t>
+          <t>-12,53; 3,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 10,89</t>
+          <t>-7,3; 11,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 9,62</t>
+          <t>-12,37; 9,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,86; 212,57</t>
+          <t>-43,26; 177,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-67,37; 47,34</t>
+          <t>-69,19; 36,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-44,52; 111,46</t>
+          <t>-40,44; 125,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-49,87; 66,96</t>
+          <t>-49,89; 74,7</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 10,79</t>
+          <t>-5,81; 11,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 10,13</t>
+          <t>-7,04; 9,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 5,77</t>
+          <t>-8,18; 5,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 12,13</t>
+          <t>-4,99; 11,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,59; 88,87</t>
+          <t>-29,36; 89,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,46; 61,25</t>
+          <t>-30,44; 60,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-40,64; 44,21</t>
+          <t>-41,6; 39,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,69; 92,88</t>
+          <t>-25,39; 93,89</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 11,77</t>
+          <t>-2,57; 12,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 11,93</t>
+          <t>-4,55; 11,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 4,89</t>
+          <t>-12,0; 3,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 5,66</t>
+          <t>-6,55; 5,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 64,67</t>
+          <t>-11,32; 64,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 60,53</t>
+          <t>-17,25; 61,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-43,08; 24,76</t>
+          <t>-42,69; 20,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,26; 47,27</t>
+          <t>-36,0; 50,32</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 8,36</t>
+          <t>-1,53; 8,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 6,05</t>
+          <t>-3,63; 6,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 3,82</t>
+          <t>-6,18; 3,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 5,66</t>
+          <t>-3,66; 6,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 56,63</t>
+          <t>-8,36; 55,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,13; 35,37</t>
+          <t>-16,46; 35,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-27,63; 24,0</t>
+          <t>-28,94; 21,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-19,72; 41,26</t>
+          <t>-19,29; 44,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C03-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C03-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>41,8</t>
+          <t>41,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,3; 74,9</t>
+          <t>14,78; 74,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,17%</t>
+          <t>-1,26%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 9,69</t>
+          <t>-5,32; 9,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 3,06</t>
+          <t>-12,69; 3,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 11,49</t>
+          <t>-8,16; 11,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 9,67</t>
+          <t>-10,96; 10,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,26; 177,0</t>
+          <t>-43,47; 189,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,19; 36,92</t>
+          <t>-68,66; 43,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-40,44; 125,77</t>
+          <t>-44,81; 116,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-49,89; 74,7</t>
+          <t>-46,83; 78,54</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>18,37%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 11,81</t>
+          <t>-4,42; 12,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 9,45</t>
+          <t>-6,93; 8,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 5,16</t>
+          <t>-8,51; 5,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 11,66</t>
+          <t>-6,01; 12,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,36; 89,35</t>
+          <t>-24,4; 106,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,44; 60,08</t>
+          <t>-30,67; 54,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-41,6; 39,76</t>
+          <t>-43,5; 47,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,39; 93,89</t>
+          <t>-29,4; 95,77</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-4,17%</t>
+          <t>-1,9%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 12,78</t>
+          <t>-3,13; 12,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 11,67</t>
+          <t>-4,17; 12,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 3,95</t>
+          <t>-10,99; 4,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 5,9</t>
+          <t>-6,83; 6,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 64,68</t>
+          <t>-12,29; 64,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 61,23</t>
+          <t>-15,97; 68,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-42,69; 20,41</t>
+          <t>-41,03; 28,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,0; 50,32</t>
+          <t>-35,94; 51,18</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>8,18%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 8,23</t>
+          <t>-1,56; 7,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 6,09</t>
+          <t>-3,68; 6,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 3,42</t>
+          <t>-5,63; 3,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 6,0</t>
+          <t>-3,29; 6,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 55,36</t>
+          <t>-8,24; 51,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,46; 35,72</t>
+          <t>-16,24; 36,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-28,94; 21,65</t>
+          <t>-26,95; 22,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 44,95</t>
+          <t>-18,74; 43,57</t>
         </is>
       </c>
     </row>
